--- a/i18n_output/zh-CN_tobemodified.xlsx
+++ b/i18n_output/zh-CN_tobemodified.xlsx
@@ -448,13 +448,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
@@ -1609,12 +1609,12 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>v3.homePage.effectiveTeaching.description</t>
+          <t>v3.homePage.flipClassroom.description</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>透過學生學習記錄，掌握教學的節奏，數據分析讓老師可更早發現問題，幫助學生抓住重點。</t>
+          <t>不要再讓學生被動學習了！透過微課程、分組學習、互評，讓學生主動發掘學習的樂趣！</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -1657,12 +1657,12 @@
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>老師</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>師資相關</t>
+          <t>學員相關</t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr"/>
@@ -1685,22 +1685,22 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>v3.homePage.feedBack.tkuComment</t>
+          <t>v3.homePage.effectiveTeaching.description</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>降低教師踏入數位學習的門檻，人性化的平台，邁入數位學習無痛感。</t>
+          <t>透過學生學習記錄，掌握教學的節奏，數據分析讓老師可更早發現問題，幫助學生抓住重點。</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>教師</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>師資相關</t>
+          <t>學員相關</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
@@ -1723,22 +1723,22 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>v3.homePage.feedBack.ttuComment</t>
+          <t>v3.homePage.effectiveTeaching.description</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>TronClass 讓傳統的教學活動變得更有效率，學生上課時更專心，也讓老師們更能專注於教學，我覺得非常受用！</t>
+          <t>透過學生學習記錄，掌握教學的節奏，數據分析讓老師可更早發現問題，幫助學生抓住重點。</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>學生</t>
+          <t>老師</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>學員相關</t>
+          <t>師資相關</t>
         </is>
       </c>
       <c r="G33" s="3" t="inlineStr"/>
@@ -1761,17 +1761,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>v3.homePage.feedBack.ttuComment</t>
+          <t>v3.homePage.feedBack.tkuComment</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>TronClass 讓傳統的教學活動變得更有效率，學生上課時更專心，也讓老師們更能專注於教學，我覺得非常受用！</t>
+          <t>降低教師踏入數位學習的門檻，人性化的平台，邁入數位學習無痛感。</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>老師</t>
+          <t>教師</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -1799,12 +1799,12 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>v3.useCases.blendedLearningPlatform.description</t>
+          <t>v3.homePage.feedBack.ttuComment</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>線上虛擬學習和線下實體課堂的混成式學習，整合各種學習工具，提供學生更多元的學習體驗，讓學生依循自己的步調學習。</t>
+          <t>TronClass 讓傳統的教學活動變得更有效率，學生上課時更專心，也讓老師們更能專注於教學，我覺得非常受用！</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
@@ -1837,22 +1837,22 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>v3.useCases.richResources.title</t>
+          <t>v3.homePage.feedBack.ttuComment</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>給學生更豐富的學習資源</t>
+          <t>TronClass 讓傳統的教學活動變得更有效率，學生上課時更專心，也讓老師們更能專注於教學，我覺得非常受用！</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>學生</t>
+          <t>老師</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>學員相關</t>
+          <t>師資相關</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
@@ -1875,22 +1875,22 @@
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>v3.useCases.richResources.description</t>
+          <t>v3.useCases.blendedLearningPlatform.description</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>老師可安排不同類型的教材，線上可直接觀看 Word、Excel、PowerPoint、PDF，也可下載檔案於離線時閱讀；支援影片、音訊上傳格式（mp4、avi、rmvb等），自動轉出可觀看的微影片。</t>
+          <t>線上虛擬學習和線下實體課堂的混成式學習，整合各種學習工具，提供學生更多元的學習體驗，讓學生依循自己的步調學習。</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>老師</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>師資相關</t>
+          <t>學員相關</t>
         </is>
       </c>
       <c r="G37" s="3" t="inlineStr"/>
@@ -1913,12 +1913,12 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>v3.useCases.manageVideo.description</t>
+          <t>v3.useCases.blendedLearningPlatform.description</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>老師可自行上傳影片，藉由AI技術自動生成字幕，自動標記知識點，線上直接剪輯影片，減輕老師工作負擔。學生可藉由查詢提問，自動定位知識點影片段落，提升學生學習效率。</t>
+          <t>線上虛擬學習和線下實體課堂的混成式學習，整合各種學習工具，提供學生更多元的學習體驗，讓學生依循自己的步調學習。</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -1951,22 +1951,22 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>v3.useCases.manageVideo.description</t>
+          <t>v3.useCases.richResources.title</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>老師可自行上傳影片，藉由AI技術自動生成字幕，自動標記知識點，線上直接剪輯影片，減輕老師工作負擔。學生可藉由查詢提問，自動定位知識點影片段落，提升學生學習效率。</t>
+          <t>給學生更豐富的學習資源</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>老師</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>師資相關</t>
+          <t>學員相關</t>
         </is>
       </c>
       <c r="G39" s="3" t="inlineStr"/>
@@ -1989,22 +1989,22 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>v3.useCases.onlineQuiz.description</t>
+          <t>v3.useCases.richResources.description</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>線上測驗方便出題和管理，幫助老師快速完成試卷的編寫，學生答完題繳交後快速計算出客觀題得分，老師不用再為大量的試卷發愁，並可即時獲得學生學習效果的回饋；除此之外，還可以應用到學習競賽答題的場景，讓課堂有...</t>
+          <t>老師可安排不同類型的教材，線上可直接觀看 Word、Excel、PowerPoint、PDF，也可下載檔案於離線時閱讀；支援影片、音訊上傳格式（mp4、avi、rmvb等），自動轉出可觀看的微影片。</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>學生</t>
+          <t>老師</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>學員相關</t>
+          <t>師資相關</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
@@ -2027,22 +2027,22 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>v3.useCases.onlineQuiz.description</t>
+          <t>v3.useCases.manageVideo.description</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>線上測驗方便出題和管理，幫助老師快速完成試卷的編寫，學生答完題繳交後快速計算出客觀題得分，老師不用再為大量的試卷發愁，並可即時獲得學生學習效果的回饋；除此之外，還可以應用到學習競賽答題的場景，讓課堂有...</t>
+          <t>老師可自行上傳影片，藉由AI技術自動生成字幕，自動標記知識點，線上直接剪輯影片，減輕老師工作負擔。學生可藉由查詢提問，自動定位知識點影片段落，提升學生學習效率。</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>老師</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>師資相關</t>
+          <t>學員相關</t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr"/>
@@ -2065,12 +2065,12 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>v3.useCases.omoSyncClass.description</t>
+          <t>v3.useCases.manageVideo.description</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>透過軟硬體整合，將課堂互動模組、 同步視訊模組、教室錄播模組，將遠距學習與實體教室連結起來，形成 HybridLearning Environment 混合學習環境。驅動跨學習空間的學生，可互動、可協...</t>
+          <t>老師可自行上傳影片，藉由AI技術自動生成字幕，自動標記知識點，線上直接剪輯影片，減輕老師工作負擔。學生可藉由查詢提問，自動定位知識點影片段落，提升學生學習效率。</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
@@ -2103,22 +2103,22 @@
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>v3.useCases.interactiveClassroom.description</t>
+          <t>v3.useCases.manageVideo.description</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>課堂中老師可設計互動的課程內容，學生可透過手機完成課堂互動活動，有效提升參與度，讓老師可即時掌握學生學習情況，第一時間幫助學生抓住重點。</t>
+          <t>老師可自行上傳影片，藉由AI技術自動生成字幕，自動標記知識點，線上直接剪輯影片，減輕老師工作負擔。學生可藉由查詢提問，自動定位知識點影片段落，提升學生學習效率。</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>學生</t>
+          <t>老師</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>學員相關</t>
+          <t>師資相關</t>
         </is>
       </c>
       <c r="G43" s="3" t="inlineStr"/>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>v3.useCases.interactiveClassroom.description</t>
+          <t>v3.useCases.manageVideo.description</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>課堂中老師可設計互動的課程內容，學生可透過手機完成課堂互動活動，有效提升參與度，讓老師可即時掌握學生學習情況，第一時間幫助學生抓住重點。</t>
+          <t>老師可自行上傳影片，藉由AI技術自動生成字幕，自動標記知識點，線上直接剪輯影片，減輕老師工作負擔。學生可藉由查詢提問，自動定位知識點影片段落，提升學生學習效率。</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>v3.useCases.interactiveClassroom.inClassQuizText</t>
+          <t>v3.useCases.onlineQuiz.description</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>即時進行課堂測驗，了解學生的上課效果。學生通過手機答題，老師可以控制答題進度，查看班級答題統計數據和分析結果。</t>
+          <t>線上測驗方便出題和管理，幫助老師快速完成試卷的編寫，學生答完題繳交後快速計算出客觀題得分，老師不用再為大量的試卷發愁，並可即時獲得學生學習效果的回饋；除此之外，還可以應用到學習競賽答題的場景，讓課堂有...</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
@@ -2217,17 +2217,17 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>v3.useCases.interactiveClassroom.inClassQuizText</t>
+          <t>v3.useCases.onlineQuiz.description</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>即時進行課堂測驗，了解學生的上課效果。學生通過手機答題，老師可以控制答題進度，查看班級答題統計數據和分析結果。</t>
+          <t>線上測驗方便出題和管理，幫助老師快速完成試卷的編寫，學生答完題繳交後快速計算出客觀題得分，老師不用再為大量的試卷發愁，並可即時獲得學生學習效果的回饋；除此之外，還可以應用到學習競賽答題的場景，讓課堂有...</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>班級</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>v3.useCases.interactiveClassroom.inClassQuizText</t>
+          <t>v3.useCases.onlineQuiz.description</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>即時進行課堂測驗，了解學生的上課效果。學生通過手機答題，老師可以控制答題進度，查看班級答題統計數據和分析結果。</t>
+          <t>線上測驗方便出題和管理，幫助老師快速完成試卷的編寫，學生答完題繳交後快速計算出客觀題得分，老師不用再為大量的試卷發愁，並可即時獲得學生學習效果的回饋；除此之外，還可以應用到學習競賽答題的場景，讓課堂有...</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -2293,22 +2293,22 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>v3.useCases.interactiveClassroom.groupLearningText</t>
+          <t>v3.useCases.onlineQuiz.description</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>支援分組教學，老師可以新建並管理班級分組、設定小組作業，讓學生合作完成，提高學生學習積極性和主動性，培養團隊合作精神。</t>
+          <t>線上測驗方便出題和管理，幫助老師快速完成試卷的編寫，學生答完題繳交後快速計算出客觀題得分，老師不用再為大量的試卷發愁，並可即時獲得學生學習效果的回饋；除此之外，還可以應用到學習競賽答題的場景，讓課堂有...</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>學生</t>
+          <t>老師</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>學員相關</t>
+          <t>師資相關</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
@@ -2331,17 +2331,17 @@
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>v3.useCases.interactiveClassroom.groupLearningText</t>
+          <t>v3.useCases.omoSyncClass.description</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>支援分組教學，老師可以新建並管理班級分組、設定小組作業，讓學生合作完成，提高學生學習積極性和主動性，培養團隊合作精神。</t>
+          <t>透過軟硬體整合，將課堂互動模組、 同步視訊模組、教室錄播模組，將遠距學習與實體教室連結起來，形成 HybridLearning Environment 混合學習環境。驅動跨學習空間的學生，可互動、可協...</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>班級</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
@@ -2369,22 +2369,22 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>v3.useCases.interactiveClassroom.groupLearningText</t>
+          <t>v3.useCases.interactiveClassroom.description</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>支援分組教學，老師可以新建並管理班級分組、設定小組作業，讓學生合作完成，提高學生學習積極性和主動性，培養團隊合作精神。</t>
+          <t>課堂中老師可設計互動的課程內容，學生可透過手機完成課堂互動活動，有效提升參與度，讓老師可即時掌握學生學習情況，第一時間幫助學生抓住重點。</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>老師</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>師資相關</t>
+          <t>學員相關</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr"/>
@@ -2407,12 +2407,12 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>v3.useCases.diverseMaterial.oneStepManagementText</t>
+          <t>v3.useCases.interactiveClassroom.description</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>老師可以設定個人作業或分組作業給學生，可以要求同儕互評作業，查看學生的作業內容和附件，並支援Rubric 評量工具於線上批改作業和寫評語。</t>
+          <t>課堂中老師可設計互動的課程內容，學生可透過手機完成課堂互動活動，有效提升參與度，讓老師可即時掌握學生學習情況，第一時間幫助學生抓住重點。</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
@@ -2445,22 +2445,22 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>v3.useCases.diverseMaterial.oneStepManagementText</t>
+          <t>v3.useCases.interactiveClassroom.description</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>老師可以設定個人作業或分組作業給學生，可以要求同儕互評作業，查看學生的作業內容和附件，並支援Rubric 評量工具於線上批改作業和寫評語。</t>
+          <t>課堂中老師可設計互動的課程內容，學生可透過手機完成課堂互動活動，有效提升參與度，讓老師可即時掌握學生學習情況，第一時間幫助學生抓住重點。</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>老師</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>師資相關</t>
+          <t>學員相關</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr"/>
@@ -2483,22 +2483,22 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>v3.useCases.diverseMaterial.autoEvaluateText</t>
+          <t>v3.useCases.interactiveClassroom.description</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>學測評一體化，線上測驗、即測即評，建立 Rubric 評分量表讓學生進行作業互評，讓學習評價更簡單直覺。</t>
+          <t>課堂中老師可設計互動的課程內容，學生可透過手機完成課堂互動活動，有效提升參與度，讓老師可即時掌握學生學習情況，第一時間幫助學生抓住重點。</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>學生</t>
+          <t>老師</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>學員相關</t>
+          <t>師資相關</t>
         </is>
       </c>
       <c r="G53" s="3" t="inlineStr"/>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>v3.useCases.diverseMaterial.gradeManagementText</t>
+          <t>v3.useCases.interactiveClassroom.description</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>作業、考試、分組學習表現等都可納入成績考量，自動化成績統計，同時允許老師靈活控制各個評價活動的成績比重。單個項目以及總成績都可以靈活設定發布規則。</t>
+          <t>課堂中老師可設計互動的課程內容，學生可透過手機完成課堂互動活動，有效提升參與度，讓老師可即時掌握學生學習情況，第一時間幫助學生抓住重點。</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
@@ -2559,12 +2559,12 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>v3.useCases.diverseMaterial.viewTeachingEffectsText</t>
+          <t>v3.useCases.interactiveClassroom.inClassQuizText</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>透過學生學習記錄，掌握教學的節奏，數據分析讓老師可更早發現問題，幫助學生抓住重點。</t>
+          <t>即時進行課堂測驗，了解學生的上課效果。學生通過手機答題，老師可以控制答題進度，查看班級答題統計數據和分析結果。</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
@@ -2597,22 +2597,22 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>v3.useCases.diverseMaterial.viewTeachingEffectsText</t>
+          <t>v3.useCases.interactiveClassroom.inClassQuizText</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>透過學生學習記錄，掌握教學的節奏，數據分析讓老師可更早發現問題，幫助學生抓住重點。</t>
+          <t>即時進行課堂測驗，了解學生的上課效果。學生通過手機答題，老師可以控制答題進度，查看班級答題統計數據和分析結果。</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>老師</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>師資相關</t>
+          <t>學員相關</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr"/>
@@ -2635,12 +2635,12 @@
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>v3.useCases.moreFeature.classManagement</t>
+          <t>v3.useCases.interactiveClassroom.inClassQuizText</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>班級管理</t>
+          <t>即時進行課堂測驗，了解學生的上課效果。學生通過手機答題，老師可以控制答題進度，查看班級答題統計數據和分析結果。</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
@@ -2673,22 +2673,22 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>v3.useCases.onCampusOpenCourse.description</t>
+          <t>v3.useCases.interactiveClassroom.inClassQuizText</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>校內老師可自行開辦公開課，校內學生都可加入</t>
+          <t>即時進行課堂測驗，了解學生的上課效果。學生通過手機答題，老師可以控制答題進度，查看班級答題統計數據和分析結果。</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>學生</t>
+          <t>老師</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>學員相關</t>
+          <t>師資相關</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr"/>
@@ -2711,22 +2711,22 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>v3.useCases.onCampusOpenCourse.description</t>
+          <t>v3.useCases.interactiveClassroom.groupLearningText</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>校內老師可自行開辦公開課，校內學生都可加入</t>
+          <t>支援分組教學，老師可以新建並管理班級分組、設定小組作業，讓學生合作完成，提高學生學習積極性和主動性，培養團隊合作精神。</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>老師</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>師資相關</t>
+          <t>學員相關</t>
         </is>
       </c>
       <c r="G59" s="3" t="inlineStr"/>
@@ -2749,12 +2749,12 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>v3.useCases.OpenCourse.description</t>
+          <t>v3.useCases.interactiveClassroom.groupLearningText</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>校級MOOC平臺，學校可以選擇是否，將課程公開給校外學生</t>
+          <t>支援分組教學，老師可以新建並管理班級分組、設定小組作業，讓學生合作完成，提高學生學習積極性和主動性，培養團隊合作精神。</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
@@ -2787,17 +2787,17 @@
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>v3.app.storiesText</t>
+          <t>v3.useCases.interactiveClassroom.groupLearningText</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>最新的課程動態即時推送、即時提醒，點擊動態即可進入相關課程頁面，隨時隨地，一手掌握學生互動回饋情況</t>
+          <t>支援分組教學，老師可以新建並管理班級分組、設定小組作業，讓學生合作完成，提高學生學習積極性和主動性，培養團隊合作精神。</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>學生</t>
+          <t>班級</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
@@ -2825,12 +2825,12 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>v3.app.interactionText</t>
+          <t>v3.useCases.interactiveClassroom.groupLearningText</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>在教學過程中，老師透過發起限時搶答、隨機選⼈、投票、搶答與學⽣開展即時互動，為課堂注⼊更多活⼒。更有隨堂測試、教學回饋，幫助⽼師即時查看教學成效</t>
+          <t>支援分組教學，老師可以新建並管理班級分組、設定小組作業，讓學生合作完成，提高學生學習積極性和主動性，培養團隊合作精神。</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
@@ -2863,17 +2863,17 @@
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>v3.app.discussionText</t>
+          <t>v3.useCases.diverseMaterial.oneStepManagementText</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>圍繞課程內容，發表文章展開討論，實現班級成員之間的互動交流。⼩組討論，⼈⼈參與，讓智慧的碰撞有了更加具象的展示空間</t>
+          <t>老師可以設定個人作業或分組作業給學生，可以要求同儕互評作業，查看學生的作業內容和附件，並支援Rubric 評量工具於線上批改作業和寫評語。</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>班級</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>v3.app.assignmentMgtText</t>
+          <t>v3.useCases.diverseMaterial.oneStepManagementText</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>教師可選擇新增個人/分組兩種作業形式，開展分層次的教學。學生可以查看作業詳情頁，完成繳交作業、互評打分、量規打分等</t>
+          <t>老師可以設定個人作業或分組作業給學生，可以要求同儕互評作業，查看學生的作業內容和附件，並支援Rubric 評量工具於線上批改作業和寫評語。</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
@@ -2939,17 +2939,17 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>v3.app.assignmentMgtText</t>
+          <t>v3.useCases.diverseMaterial.oneStepManagementText</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>教師可選擇新增個人/分組兩種作業形式，開展分層次的教學。學生可以查看作業詳情頁，完成繳交作業、互評打分、量規打分等</t>
+          <t>老師可以設定個人作業或分組作業給學生，可以要求同儕互評作業，查看學生的作業內容和附件，並支援Rubric 評量工具於線上批改作業和寫評語。</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>教師</t>
+          <t>老師</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
@@ -2977,12 +2977,12 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>v3.app.assessmentMgtText</t>
+          <t>v3.useCases.diverseMaterial.autoEvaluateText</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>在測驗中，教師可靈活選擇考試模式或練習模式，讓學生隨時在行動裝置上完成線上考試或多次練習鞏固知識點</t>
+          <t>學測評一體化，線上測驗、即測即評，建立 Rubric 評分量表讓學生進行作業互評，讓學習評價更簡單直覺。</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
@@ -3015,17 +3015,17 @@
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>v3.app.assessmentMgtText</t>
+          <t>v3.useCases.diverseMaterial.gradeManagementText</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>在測驗中，教師可靈活選擇考試模式或練習模式，讓學生隨時在行動裝置上完成線上考試或多次練習鞏固知識點</t>
+          <t>作業、考試、分組學習表現等都可納入成績考量，自動化成績統計，同時允許老師靈活控制各個評價活動的成績比重。單個項目以及總成績都可以靈活設定發布規則。</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>教師</t>
+          <t>老師</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>v3.app.analyticText</t>
+          <t>v3.useCases.diverseMaterial.viewTeachingEffectsText</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>針對學⽣，TronClass提供詳盡全⾯的學習分析，記錄學生學習軌跡，弱點難點提早展示，輔助教學管理⼯作</t>
+          <t>透過學生學習記錄，掌握教學的節奏，數據分析讓老師可更早發現問題，幫助學生抓住重點。</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
@@ -3091,22 +3091,22 @@
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>v3.app.analyticText</t>
+          <t>v3.useCases.diverseMaterial.viewTeachingEffectsText</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>針對學⽣，TronClass提供詳盡全⾯的學習分析，記錄學生學習軌跡，弱點難點提早展示，輔助教學管理⼯作</t>
+          <t>透過學生學習記錄，掌握教學的節奏，數據分析讓老師可更早發現問題，幫助學生抓住重點。</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>助教</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>師資相關</t>
+          <t>學員相關</t>
         </is>
       </c>
       <c r="G69" s="3" t="inlineStr"/>
@@ -3129,17 +3129,17 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>v3.corporateTraining.useTronClass.inClassModuleText</t>
+          <t>v3.useCases.diverseMaterial.viewTeachingEffectsText</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>講師可進行OMO課堂互動，隨機選人、搶答互動、隨堂測驗、電子白板，搭配同步視訊工具，混合翻轉。</t>
+          <t>透過學生學習記錄，掌握教學的節奏，數據分析讓老師可更早發現問題，幫助學生抓住重點。</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>講師</t>
+          <t>老師</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr">
@@ -3167,22 +3167,22 @@
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>v3.corporateTraining.useTronClass.videoIntegrationText</t>
+          <t>v3.useCases.moreFeature.classManagement</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>員工不須另外註冊帳號，直接使用平台帳號啟動，講師輕鬆管理出勤，啟動同步教學，線上線下融合學習環境。</t>
+          <t>班級管理</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>講師</t>
+          <t>班級</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>師資相關</t>
+          <t>學員相關</t>
         </is>
       </c>
       <c r="G71" s="3" t="inlineStr"/>
@@ -3205,12 +3205,12 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>v3.tcVersion.personal.studentPerCourse</t>
+          <t>v3.useCases.onCampusOpenCourse.description</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>每門課程100名學生</t>
+          <t>校內老師可自行開辦公開課，校內學生都可加入</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
@@ -3243,22 +3243,22 @@
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>v3.tcVersion.campus.moreSpace</t>
+          <t>v3.useCases.onCampusOpenCourse.description</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>更多空間、更大班級</t>
+          <t>校內老師可自行開辦公開課，校內學生都可加入</t>
         </is>
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>班級</t>
+          <t>老師</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>學員相關</t>
+          <t>師資相關</t>
         </is>
       </c>
       <c r="G73" s="3" t="inlineStr"/>
@@ -3281,22 +3281,22 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>air.aiAssistantUse</t>
+          <t>v3.useCases.OpenCourse.description</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>AI助教使用</t>
+          <t>校級MOOC平臺，學校可以選擇是否，將課程公開給校外學生</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>助教</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>師資相關</t>
+          <t>學員相關</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr"/>
@@ -3319,17 +3319,17 @@
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>attendanceAnalysis.administrativeClass</t>
+          <t>v3.app.storiesText</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>行政班級</t>
+          <t>最新的課程動態即時推送、即時提醒，點擊動態即可進入相關課程頁面，隨時隨地，一手掌握學生互動回饋情況</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>班級</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
@@ -3357,17 +3357,17 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>courseNavigation.instructor</t>
+          <t>v3.app.interactionText</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>教师、助教、自定义课程角色</t>
+          <t>在教學過程中，老師透過發起限時搶答、隨機選⼈、投票、搶答與學⽣開展即時互動，為課堂注⼊更多活⼒。更有隨堂測試、教學回饋，幫助⽼師即時查看教學成效</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>助教</t>
+          <t>老師</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr">
@@ -3395,22 +3395,22 @@
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>courseNavigation.student</t>
+          <t>v3.app.discussionText</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>学生、学生助教</t>
+          <t>圍繞課程內容，發表文章展開討論，實現班級成員之間的互動交流。⼩組討論，⼈⼈參與，讓智慧的碰撞有了更加具象的展示空間</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>助教</t>
+          <t>班級</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>師資相關</t>
+          <t>學員相關</t>
         </is>
       </c>
       <c r="G77" s="3" t="inlineStr"/>
@@ -3420,6 +3420,538 @@
       <c r="K77" s="3" t="inlineStr"/>
       <c r="L77" s="3" t="inlineStr"/>
     </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>zh-CN.json</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>v3.app.assignmentMgtText</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>教師可選擇新增個人/分組兩種作業形式，開展分層次的教學。學生可以查看作業詳情頁，完成繳交作業、互評打分、量規打分等</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>學員相關</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr"/>
+      <c r="H78" s="2" t="inlineStr"/>
+      <c r="I78" s="2" t="inlineStr"/>
+      <c r="J78" s="2" t="inlineStr"/>
+      <c r="K78" s="2" t="inlineStr"/>
+      <c r="L78" s="2" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>zh-CN.json</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>v3.app.assignmentMgtText</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>教師可選擇新增個人/分組兩種作業形式，開展分層次的教學。學生可以查看作業詳情頁，完成繳交作業、互評打分、量規打分等</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>教師</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
+      <c r="G79" s="3" t="inlineStr"/>
+      <c r="H79" s="3" t="inlineStr"/>
+      <c r="I79" s="3" t="inlineStr"/>
+      <c r="J79" s="3" t="inlineStr"/>
+      <c r="K79" s="3" t="inlineStr"/>
+      <c r="L79" s="3" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>zh-CN.json</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>v3.app.assessmentMgtText</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>在測驗中，教師可靈活選擇考試模式或練習模式，讓學生隨時在行動裝置上完成線上考試或多次練習鞏固知識點</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>學員相關</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr"/>
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr"/>
+      <c r="J80" s="2" t="inlineStr"/>
+      <c r="K80" s="2" t="inlineStr"/>
+      <c r="L80" s="2" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>zh-CN.json</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>v3.app.assessmentMgtText</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>在測驗中，教師可靈活選擇考試模式或練習模式，讓學生隨時在行動裝置上完成線上考試或多次練習鞏固知識點</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>教師</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
+      <c r="G81" s="3" t="inlineStr"/>
+      <c r="H81" s="3" t="inlineStr"/>
+      <c r="I81" s="3" t="inlineStr"/>
+      <c r="J81" s="3" t="inlineStr"/>
+      <c r="K81" s="3" t="inlineStr"/>
+      <c r="L81" s="3" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>zh-CN.json</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>v3.app.analyticText</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>針對學⽣，TronClass提供詳盡全⾯的學習分析，記錄學生學習軌跡，弱點難點提早展示，輔助教學管理⼯作</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>學員相關</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr"/>
+      <c r="H82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr"/>
+      <c r="J82" s="2" t="inlineStr"/>
+      <c r="K82" s="2" t="inlineStr"/>
+      <c r="L82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>zh-CN.json</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>v3.app.analyticText</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>針對學⽣，TronClass提供詳盡全⾯的學習分析，記錄學生學習軌跡，弱點難點提早展示，輔助教學管理⼯作</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>助教</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
+      <c r="G83" s="3" t="inlineStr"/>
+      <c r="H83" s="3" t="inlineStr"/>
+      <c r="I83" s="3" t="inlineStr"/>
+      <c r="J83" s="3" t="inlineStr"/>
+      <c r="K83" s="3" t="inlineStr"/>
+      <c r="L83" s="3" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>zh-CN.json</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>v3.corporateTraining.useTronClass.inClassModuleText</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>講師可進行OMO課堂互動，隨機選人、搶答互動、隨堂測驗、電子白板，搭配同步視訊工具，混合翻轉。</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>講師</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr"/>
+      <c r="H84" s="2" t="inlineStr"/>
+      <c r="I84" s="2" t="inlineStr"/>
+      <c r="J84" s="2" t="inlineStr"/>
+      <c r="K84" s="2" t="inlineStr"/>
+      <c r="L84" s="2" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>zh-CN.json</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>v3.corporateTraining.useTronClass.videoIntegrationText</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>員工不須另外註冊帳號，直接使用平台帳號啟動，講師輕鬆管理出勤，啟動同步教學，線上線下融合學習環境。</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="inlineStr">
+        <is>
+          <t>講師</t>
+        </is>
+      </c>
+      <c r="F85" s="3" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
+      <c r="G85" s="3" t="inlineStr"/>
+      <c r="H85" s="3" t="inlineStr"/>
+      <c r="I85" s="3" t="inlineStr"/>
+      <c r="J85" s="3" t="inlineStr"/>
+      <c r="K85" s="3" t="inlineStr"/>
+      <c r="L85" s="3" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>zh-CN.json</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>v3.tcVersion.personal.studentPerCourse</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>每門課程100名學生</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>學員相關</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr"/>
+      <c r="H86" s="2" t="inlineStr"/>
+      <c r="I86" s="2" t="inlineStr"/>
+      <c r="J86" s="2" t="inlineStr"/>
+      <c r="K86" s="2" t="inlineStr"/>
+      <c r="L86" s="2" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>zh-CN.json</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>v3.tcVersion.campus.moreSpace</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>更多空間、更大班級</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>班級</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
+          <t>學員相關</t>
+        </is>
+      </c>
+      <c r="G87" s="3" t="inlineStr"/>
+      <c r="H87" s="3" t="inlineStr"/>
+      <c r="I87" s="3" t="inlineStr"/>
+      <c r="J87" s="3" t="inlineStr"/>
+      <c r="K87" s="3" t="inlineStr"/>
+      <c r="L87" s="3" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>zh-CN.json</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>air.aiAssistantUse</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>AI助教使用</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>助教</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr"/>
+      <c r="H88" s="2" t="inlineStr"/>
+      <c r="I88" s="2" t="inlineStr"/>
+      <c r="J88" s="2" t="inlineStr"/>
+      <c r="K88" s="2" t="inlineStr"/>
+      <c r="L88" s="2" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>zh-CN.json</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>attendanceAnalysis.administrativeClass</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>行政班級</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>班級</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="inlineStr">
+        <is>
+          <t>學員相關</t>
+        </is>
+      </c>
+      <c r="G89" s="3" t="inlineStr"/>
+      <c r="H89" s="3" t="inlineStr"/>
+      <c r="I89" s="3" t="inlineStr"/>
+      <c r="J89" s="3" t="inlineStr"/>
+      <c r="K89" s="3" t="inlineStr"/>
+      <c r="L89" s="3" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>zh-CN.json</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>courseNavigation.instructor</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>教师、助教、自定义课程角色</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>助教</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr"/>
+      <c r="H90" s="2" t="inlineStr"/>
+      <c r="I90" s="2" t="inlineStr"/>
+      <c r="J90" s="2" t="inlineStr"/>
+      <c r="K90" s="2" t="inlineStr"/>
+      <c r="L90" s="2" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>JSON</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>zh-CN.json</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>courseNavigation.student</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>学生、学生助教</t>
+        </is>
+      </c>
+      <c r="E91" s="3" t="inlineStr">
+        <is>
+          <t>助教</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
+      <c r="G91" s="3" t="inlineStr"/>
+      <c r="H91" s="3" t="inlineStr"/>
+      <c r="I91" s="3" t="inlineStr"/>
+      <c r="J91" s="3" t="inlineStr"/>
+      <c r="K91" s="3" t="inlineStr"/>
+      <c r="L91" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
